--- a/Documentation/Visualizations/Chronik_Mammalia-Collectors_Kamerun.xlsx
+++ b/Documentation/Visualizations/Chronik_Mammalia-Collectors_Kamerun.xlsx
@@ -547,7 +547,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zenker</t>
+          <t>Hoesemann</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -561,14 +561,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>G. Zenker</t>
+          <t>Dr. Hoesemann</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Leutnant Jacob</t>
+          <t>Schulz</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -582,14 +582,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Oberleutnant Jacob</t>
+          <t>Leutnant Schulz; Nachlaß des Herrn Leutnant Schulz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Langheld</t>
+          <t>Zenker</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hauptmann Langheld; Major Langheld</t>
+          <t>G. Zenker</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hoesemann</t>
+          <t>Leutnant Jacob</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -645,14 +645,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dr. Hoesemann</t>
+          <t>Oberleutnant Jacob</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Schulz</t>
+          <t>Langheld</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -666,14 +666,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leutnant Schulz; Nachlaß des Herrn Leutnant Schulz</t>
+          <t>Major Langheld; Hauptmann Langheld</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>v. Kamptz</t>
+          <t>Hauptmann Scheunemann</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Major von Kamptz</t>
+          <t>Oberleutnant Scheunemann</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dr. Mansfeld</t>
+          <t>v. Kamptz</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stabsarzt Dr. Mansfeld</t>
+          <t>Major von Kamptz</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hauptmann Scheunemann</t>
+          <t>Paschen</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -769,16 +769,12 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Oberleutnant Scheunemann</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paschen</t>
+          <t>Dr. Riegler</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -795,7 +791,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dr. Riegler</t>
+          <t>Dr. Mansfeld</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -807,12 +803,16 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Stabsarzt Dr. Mansfeld</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Oberleutnant von Carnap-Quernheimb</t>
+          <t>Prof. Dr. Preuß</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -829,7 +829,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dr. Ziemann</t>
+          <t>Dr. Strunk</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -846,7 +846,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Oberleutnant von Bülow</t>
+          <t>Dr. Ziemann</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -863,7 +863,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Leutnant von Örtzen</t>
+          <t>Oberleutnant Laasch</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -880,7 +880,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Baumeister Planer</t>
+          <t>Dr. Biedermann-Imhoof</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -897,7 +897,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dr. Strunek</t>
+          <t>Hauptmann von Restorff</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -914,7 +914,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Umlauff</t>
+          <t>Oberleutnant Adametz</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -931,7 +931,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Biologischen Abteilung des Kaiserlichen Gesundheits-Amtes</t>
+          <t>Stabsarzt Dr. Freyer</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -948,7 +948,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dr. Biedermann-Imhoof</t>
+          <t>Hauptmann Forster</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -965,7 +965,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hauptmann von Restorff</t>
+          <t>Tiermaler Heims</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -982,7 +982,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lichtwardt</t>
+          <t>Regierungsrat Professor Dr. Haberer</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -999,24 +999,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Museum in Stockholm</t>
+          <t>Dr. Hösemann</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Conradt</t>
+          <t>Bezirksamtmann Krücke</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1033,7 +1033,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Prof. Dr. Preuß</t>
+          <t>Oberleutnant Strümpell</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1050,7 +1050,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dr. Strunk</t>
+          <t>F. Ulrich</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1067,7 +1067,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Oberleutnant Adametz</t>
+          <t>von Knobloch</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1084,7 +1084,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Stabsarzt Dr. Freyer</t>
+          <t>von Puttkamer</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1101,7 +1101,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hauptmann Forster</t>
+          <t>Strunck</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1118,7 +1118,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tiermaler Heims</t>
+          <t>Waldow</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1135,7 +1135,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Regierungsrat Professor Dr. Haberer</t>
+          <t>Oberleutnant von Stein</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1152,7 +1152,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Dr. Hösemann</t>
+          <t>Oberleutnant von Carnap-Quernheimb</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1169,7 +1169,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bezirksamtmann Krücke</t>
+          <t>Lichtwardt</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1186,7 +1186,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Oberleutnant Strümpell</t>
+          <t>Conradt</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1203,24 +1203,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>F. Ulrich</t>
+          <t>Museum in Stockholm</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Oberleutnant von Stein</t>
+          <t>Oberleutnant Förster</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1237,7 +1237,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Oberleutnant Laasch</t>
+          <t>Stift</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1254,7 +1254,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>von Knobloch</t>
+          <t>Oberleutnant von Bülow</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1271,7 +1271,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>von Puttkamer</t>
+          <t>Leutnant von Örtzen</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1288,7 +1288,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Strunck</t>
+          <t>Baumeister Planer</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1305,7 +1305,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Waldow</t>
+          <t>Dr. Strunek</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1322,7 +1322,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Oberleutnant Förster</t>
+          <t>Umlauff</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1339,7 +1339,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Stift</t>
+          <t>Biologischen Abteilung des Kaiserlichen Gesundheits-Amtes</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hauptmann Langheld; Major Langheld</t>
+          <t>Major Langheld; Hauptmann Langheld</t>
         </is>
       </c>
     </row>
@@ -1848,14 +1848,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dr. Biedermann-Imhoof</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Diehl</t>
+          <t>Dr. Biedermann-Imhoof</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1877,16 +1877,12 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A. Diehl</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hauptmann Glauning</t>
+          <t>Diehl</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1898,12 +1894,16 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A. Diehl</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leutnant Jacob</t>
+          <t>Hauptmann Glauning</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1915,16 +1915,12 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Oberleutnant Jacob</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Langheld</t>
+          <t>Leutnant Jacob</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1938,14 +1934,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hauptmann Langheld; Major Langheld</t>
+          <t>Oberleutnant Jacob</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Leutnant von Oertzen</t>
+          <t>Langheld</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1959,14 +1955,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Oberleutnant von Oertzen</t>
+          <t>Major Langheld; Hauptmann Langheld</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hauptmann von Restorff</t>
+          <t>Leutnant von Oertzen</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1978,12 +1974,16 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Oberleutnant von Oertzen</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hauptmann Scheunemann</t>
+          <t>Hauptmann von Restorff</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1995,16 +1995,12 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Oberleutnant Scheunemann</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zenker</t>
+          <t>Hauptmann Scheunemann</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2018,26 +2014,30 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>G. Zenker</t>
+          <t>Oberleutnant Scheunemann</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Zenker</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>G. Zenker</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2806,24 +2806,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Museum in Stockholm</t>
+          <t>Dr. Preuss</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dr. Preuss</t>
+          <t>Conradt</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2840,17 +2840,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Conradt</t>
+          <t>Museum in Stockholm</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -3020,14 +3020,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Oberleutnant von Carnap-Quernheimb</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3037,14 +3037,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Oberleutnant von Carnap-Quernheimb</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3108,19 +3108,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>v. Kamptz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Major von Kamptz</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3142,23 +3146,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>v. Kamptz</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Major von Kamptz</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3658,28 +3658,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diehl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>A. Diehl</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hoesemann</t>
+          <t>Diehl</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3693,14 +3689,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Hoesemann</t>
+          <t>A. Diehl</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>von Knobloch</t>
+          <t>Hoesemann</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3712,12 +3708,16 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dr. Hoesemann</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Langheld</t>
+          <t>von Knobloch</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3729,16 +3729,12 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Hauptmann Langheld; Major Langheld</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paschen</t>
+          <t>Langheld</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3750,12 +3746,16 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Major Langheld; Hauptmann Langheld</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>von Puttkamer</t>
+          <t>Paschen</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3772,7 +3772,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Schulz</t>
+          <t>von Puttkamer</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3784,16 +3784,12 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Leutnant Schulz; Nachlaß des Herrn Leutnant Schulz</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Strunck</t>
+          <t>Schulz</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3805,12 +3801,16 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Leutnant Schulz; Nachlaß des Herrn Leutnant Schulz</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Waldow</t>
+          <t>Strunck</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3827,14 +3827,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Waldow</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
